--- a/data/trans_dic/P36BPD07_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD07_R-Edad-trans_dic.xlsx
@@ -609,22 +609,22 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.6665863811508347</v>
+        <v>0.3334136188491653</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.6460734575312437</v>
+        <v>0.3539265424687565</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7391241247032629</v>
+        <v>0.2608758752967371</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.6238240424416635</v>
+        <v>0.3761759575583364</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0.7018937482294537</v>
+        <v>0.2981062517705463</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.6356026972323905</v>
+        <v>0.3643973027676097</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6193909802919487</v>
+        <v>0.2898940151794383</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5675359195035774</v>
+        <v>0.2795212302944453</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6976201779218859</v>
+        <v>0.2174437067323481</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5487337163929839</v>
+        <v>0.3090959205435914</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6683242207793483</v>
+        <v>0.266569403397151</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5814975182360957</v>
+        <v>0.3131102054834499</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7101059848205621</v>
+        <v>0.3806090197080514</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.720478769705555</v>
+        <v>0.4324640804964226</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7825562932676529</v>
+        <v>0.3023798220781141</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6909040794564082</v>
+        <v>0.4512662836070159</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7334305966028488</v>
+        <v>0.3316757792206515</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6868897945165506</v>
+        <v>0.4185024817639042</v>
       </c>
     </row>
     <row r="7">
@@ -691,22 +691,22 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.7586207217794176</v>
+        <v>0.2413792782205824</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.642417597795465</v>
+        <v>0.3575824022045347</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7760360409842783</v>
+        <v>0.2239639590157217</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.7422870468102727</v>
+        <v>0.2577129531897274</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.7671251876247067</v>
+        <v>0.2328748123752933</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.693540448268242</v>
+        <v>0.306459551731758</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7218379458100593</v>
+        <v>0.2063142180618142</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5837816492992639</v>
+        <v>0.3060456459127639</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7440129110141298</v>
+        <v>0.184448213840424</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6981967907598405</v>
+        <v>0.2203233961968829</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7437418127557616</v>
+        <v>0.210137735612429</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6572609092332918</v>
+        <v>0.2717012541296839</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7936857819381858</v>
+        <v>0.2781620541899408</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.693954354087236</v>
+        <v>0.4162183507007361</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.815551786159576</v>
+        <v>0.2559870889858702</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7796766038031172</v>
+        <v>0.3018032092401596</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7898622643875709</v>
+        <v>0.2562581872442383</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7282987458703165</v>
+        <v>0.3427390907667083</v>
       </c>
     </row>
     <row r="10">
@@ -773,22 +773,22 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.8293727489628574</v>
+        <v>0.1706272510371426</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.6951890833545254</v>
+        <v>0.3048109166454745</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.815644637594037</v>
+        <v>0.184355362405963</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7229716171467658</v>
+        <v>0.2770283828532342</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.8225520601104712</v>
+        <v>0.1774479398895288</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.7090828515738462</v>
+        <v>0.2909171484261537</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7988650587839379</v>
+        <v>0.1427793751659889</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6560330714480973</v>
+        <v>0.2647640864766661</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7843031950416783</v>
+        <v>0.156137271500417</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6915783495439484</v>
+        <v>0.2449548676779793</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8003836428301732</v>
+        <v>0.1577344012016372</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6857925347043822</v>
+        <v>0.2666088132483075</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8572206248340111</v>
+        <v>0.2011349412160622</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7352359135233338</v>
+        <v>0.3439669285519025</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8438627284995831</v>
+        <v>0.2156968049583219</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7550451323220209</v>
+        <v>0.3084216504560518</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8422655987983627</v>
+        <v>0.1996163571698269</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7333911867516923</v>
+        <v>0.3142074652956178</v>
       </c>
     </row>
     <row r="13">
@@ -855,22 +855,22 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8553500074550136</v>
+        <v>0.1446499925449864</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7094695614481585</v>
+        <v>0.2905304385518415</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8924086831876102</v>
+        <v>0.1075913168123897</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7573687749832422</v>
+        <v>0.2426312250167576</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8738746297184211</v>
+        <v>0.1261253702815789</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.7340059759909343</v>
+        <v>0.2659940240090655</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8261667127631819</v>
+        <v>0.1163829611773315</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6735589653684469</v>
+        <v>0.2554584632141543</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8654805675102254</v>
+        <v>0.08406176775239926</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7300776146598805</v>
+        <v>0.2176156070223675</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8542003193003356</v>
+        <v>0.1077161861051601</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.710765546806838</v>
+        <v>0.2459316102752674</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8836170388226686</v>
+        <v>0.1738332872368181</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7445415367858458</v>
+        <v>0.3264410346315529</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9159382322476008</v>
+        <v>0.1345194324897747</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7823843929776325</v>
+        <v>0.2699223853401198</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8922838138948399</v>
+        <v>0.1457996806996643</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7540683897247327</v>
+        <v>0.2892344531931619</v>
       </c>
     </row>
     <row r="16">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.9592590702395143</v>
+        <v>0.04074092976048568</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.7477440931786521</v>
+        <v>0.2522559068213479</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9442670933886107</v>
+        <v>0.05573290661138929</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.799641236484409</v>
+        <v>0.2003587635155909</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9515719464952752</v>
+        <v>0.04842805350472478</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.7737201775068649</v>
+        <v>0.2262798224931349</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9364354149023085</v>
+        <v>0.02385060199439073</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7085004407184031</v>
+        <v>0.2202847559642503</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9169714384209139</v>
+        <v>0.03682498558892078</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7734231302024189</v>
+        <v>0.1761055525736648</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9347742275881312</v>
+        <v>0.03404424240117933</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7520550716120993</v>
+        <v>0.2050479628214897</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9761493980056092</v>
+        <v>0.0635645850976914</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7797152440357497</v>
+        <v>0.2914995592815968</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9631750144110792</v>
+        <v>0.08302856157908611</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8238944474263338</v>
+        <v>0.2265768697975809</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9659557575988206</v>
+        <v>0.06522577241186847</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7949520371785103</v>
+        <v>0.2479449283879001</v>
       </c>
     </row>
     <row r="19">
@@ -1019,22 +1019,22 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.9685828919210252</v>
+        <v>0.03141710807897482</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.799574918604134</v>
+        <v>0.200425081395866</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9775987047605741</v>
+        <v>0.02240129523942588</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.8297530863201968</v>
+        <v>0.1702469136798033</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9733734355425826</v>
+        <v>0.02662656445741741</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.815234341996211</v>
+        <v>0.184765658003789</v>
       </c>
     </row>
     <row r="20">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9447371167777933</v>
+        <v>0.01515113704505816</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7608835190028177</v>
+        <v>0.1706645900580872</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9574630855575667</v>
+        <v>0.01095266813714644</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8027760203223908</v>
+        <v>0.1456841446134362</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9592768609967441</v>
+        <v>0.01608486498064975</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.7947410649535966</v>
+        <v>0.1629094157811493</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.984848862954942</v>
+        <v>0.05526288322220697</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8293354099419125</v>
+        <v>0.2391164809971822</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9890473318628534</v>
+        <v>0.04253691444243321</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8543158553865637</v>
+        <v>0.1972239796776092</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9839151350193504</v>
+        <v>0.04072313900325592</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.8370905842188506</v>
+        <v>0.2052589350464034</v>
       </c>
     </row>
     <row r="22">
@@ -1101,22 +1101,22 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.9673254472995576</v>
+        <v>0.03267455270044238</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.7905672104660619</v>
+        <v>0.2094327895339379</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9708316574697615</v>
+        <v>0.02916834253023847</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.8454153267266358</v>
+        <v>0.1545846732733641</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9694603161540732</v>
+        <v>0.03053968384592678</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.8234392711260461</v>
+        <v>0.1765607288739537</v>
       </c>
     </row>
     <row r="23">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9423748738539459</v>
+        <v>0.01382846648121209</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7499910013607055</v>
+        <v>0.1728614335574016</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9469916755540992</v>
+        <v>0.01304058771822728</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8146655561428666</v>
+        <v>0.1315090405490947</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9529959383080865</v>
+        <v>0.01861577299549656</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.8018267230653375</v>
+        <v>0.1553070534736094</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9861715335187879</v>
+        <v>0.05762512614605413</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8271385664425984</v>
+        <v>0.2500089986392945</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9869594122817726</v>
+        <v>0.05300832444590067</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8684909594509052</v>
+        <v>0.1853344438571334</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9813842270045035</v>
+        <v>0.04700406169191366</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8446929465263906</v>
+        <v>0.1981732769346624</v>
       </c>
     </row>
     <row r="25">
@@ -1183,22 +1183,22 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.8438791997723469</v>
+        <v>0.1561208002276531</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.7146499039022403</v>
+        <v>0.2853500960977597</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.8673042737394177</v>
+        <v>0.1326957262605824</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.7629927594309129</v>
+        <v>0.2370072405690868</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>0.8558485756066168</v>
+        <v>0.1441514243933832</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.7394888494351726</v>
+        <v>0.2605111505648273</v>
       </c>
     </row>
     <row r="26">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8300347387695119</v>
+        <v>0.1441984319328135</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.6966597060309331</v>
+        <v>0.2683177184577972</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8546303683740382</v>
+        <v>0.1218555774801523</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.7501236290674956</v>
+        <v>0.2236564150196443</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.8468002539047055</v>
+        <v>0.135277739442386</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.7287051586462991</v>
+        <v>0.2498869857498086</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8558015680671867</v>
+        <v>0.1699652612304881</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.7316822815422028</v>
+        <v>0.3033402939690669</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8781444225198477</v>
+        <v>0.1453696316259617</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.7763435849803556</v>
+        <v>0.2498763709325044</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.864722260557614</v>
+        <v>0.1531997460952944</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.7501130142501912</v>
+        <v>0.2712948413537006</v>
       </c>
     </row>
     <row r="28">
@@ -1388,22 +1388,22 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>262</v>
+        <v>129</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>298</v>
+        <v>106</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>560</v>
+        <v>235</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>243</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5">
@@ -1414,22 +1414,22 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>278173</v>
+        <v>139137</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>263464</v>
+        <v>144329</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>292512</v>
+        <v>103243</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>226144</v>
+        <v>136368</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>570685</v>
+        <v>242380</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>489608</v>
+        <v>280697</v>
       </c>
     </row>
     <row r="6">
@@ -1440,22 +1440,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>258478</v>
+        <v>120976</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>231437</v>
+        <v>113987</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>276087</v>
+        <v>86054</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>198923</v>
+        <v>112051</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>543391</v>
+        <v>216738</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>447930</v>
+        <v>241190</v>
       </c>
     </row>
     <row r="7">
@@ -1466,22 +1466,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>296334</v>
+        <v>158832</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>293806</v>
+        <v>176356</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>309701</v>
+        <v>119668</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>250461</v>
+        <v>163589</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>596327</v>
+        <v>269674</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>529115</v>
+        <v>322375</v>
       </c>
     </row>
     <row r="8">
@@ -1496,22 +1496,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>427</v>
+        <v>139</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>449</v>
+        <v>129</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>346</v>
+        <v>113</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>876</v>
+        <v>268</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>538</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9">
@@ -1522,22 +1522,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>447169</v>
+        <v>142281</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>306363</v>
+        <v>170527</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>436572</v>
+        <v>125995</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>371245</v>
+        <v>128892</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>883741</v>
+        <v>268276</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>677608</v>
+        <v>299419</v>
       </c>
     </row>
     <row r="10">
@@ -1548,22 +1548,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>425487</v>
+        <v>121612</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>278400</v>
+        <v>145950</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>418557</v>
+        <v>103764</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>349194</v>
+        <v>110192</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>856803</v>
+        <v>242082</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>642162</v>
+        <v>265459</v>
       </c>
     </row>
     <row r="11">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>467838</v>
+        <v>163963</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>330940</v>
+        <v>198490</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>458803</v>
+        <v>144010</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>389945</v>
+        <v>150943</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>909935</v>
+        <v>295214</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>711568</v>
+        <v>334865</v>
       </c>
     </row>
     <row r="12">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="C12" s="6" t="n">
-        <v>525</v>
+        <v>111</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>378</v>
+        <v>167</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>540</v>
+        <v>122</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>622</v>
+        <v>221</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1065</v>
+        <v>233</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1000</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13">
@@ -1630,22 +1630,22 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>553210</v>
+        <v>113812</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>430766</v>
+        <v>188872</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>537222</v>
+        <v>121425</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>448142</v>
+        <v>171719</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>1090432</v>
+        <v>235237</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>878907</v>
+        <v>360592</v>
       </c>
     </row>
     <row r="14">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>532861</v>
+        <v>95237</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>406503</v>
+        <v>164058</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>516579</v>
+        <v>102839</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>428682</v>
+        <v>151838</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1061044</v>
+        <v>209104</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>850039</v>
+        <v>330461</v>
       </c>
     </row>
     <row r="15">
@@ -1682,22 +1682,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>571785</v>
+        <v>134161</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>455580</v>
+        <v>213135</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>555808</v>
+        <v>142068</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>468023</v>
+        <v>191179</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1116565</v>
+        <v>264625</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>909038</v>
+        <v>389460</v>
       </c>
     </row>
     <row r="16">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C16" s="6" t="n">
-        <v>498</v>
+        <v>83</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>479</v>
+        <v>186</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>535</v>
+        <v>63</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>877</v>
+        <v>262</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>1033</v>
+        <v>146</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>1356</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17">
@@ -1738,22 +1738,22 @@
         </is>
       </c>
       <c r="C17" s="6" t="n">
-        <v>551809</v>
+        <v>93317</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>497066</v>
+        <v>203551</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>575423</v>
+        <v>69375</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>557281</v>
+        <v>178531</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1127232</v>
+        <v>162692</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1054348</v>
+        <v>382082</v>
       </c>
     </row>
     <row r="18">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>532982</v>
+        <v>75082</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>471907</v>
+        <v>178979</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>558060</v>
+        <v>54203</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>537200</v>
+        <v>160124</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1101853</v>
+        <v>138946</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1020965</v>
+        <v>353264</v>
       </c>
     </row>
     <row r="19">
@@ -1790,22 +1790,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>570044</v>
+        <v>112144</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>521638</v>
+        <v>228710</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>590595</v>
+        <v>86738</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>575688</v>
+        <v>198612</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1150978</v>
+        <v>188071</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1083166</v>
+        <v>415465</v>
       </c>
     </row>
     <row r="20">
@@ -1820,22 +1820,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>401</v>
+        <v>16</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>494</v>
+        <v>166</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>408</v>
+        <v>23</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>813</v>
+        <v>187</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>809</v>
+        <v>39</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1307</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21">
@@ -1846,22 +1846,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>450707</v>
+        <v>19142</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>453479</v>
+        <v>152984</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>466880</v>
+        <v>27556</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>485982</v>
+        <v>121768</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>917587</v>
+        <v>46698</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>939462</v>
+        <v>274752</v>
       </c>
     </row>
     <row r="22">
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>439983</v>
+        <v>11206</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>429679</v>
+        <v>133595</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>453384</v>
+        <v>18208</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>470048</v>
+        <v>107028</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>901389</v>
+        <v>32828</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>913156</v>
+        <v>248972</v>
       </c>
     </row>
     <row r="23">
@@ -1898,22 +1898,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>458643</v>
+        <v>29866</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>472868</v>
+        <v>176784</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>476228</v>
+        <v>41052</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>500722</v>
+        <v>137702</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>931457</v>
+        <v>62896</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>965242</v>
+        <v>301058</v>
       </c>
     </row>
     <row r="24">
@@ -1928,22 +1928,22 @@
         </is>
       </c>
       <c r="C24" s="6" t="n">
-        <v>313</v>
+        <v>10</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>454</v>
+        <v>115</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>345</v>
+        <v>8</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>696</v>
+        <v>129</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>658</v>
+        <v>18</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1150</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25">
@@ -1954,22 +1954,22 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>321774</v>
+        <v>10437</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>324633</v>
+        <v>81374</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>368218</v>
+        <v>8438</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>363354</v>
+        <v>74552</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>689992</v>
+        <v>18875</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>687987</v>
+        <v>155926</v>
       </c>
     </row>
     <row r="26">
@@ -1980,22 +1980,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>313852</v>
+        <v>5033</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>308924</v>
+        <v>69291</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>360634</v>
+        <v>4125</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>351540</v>
+        <v>63796</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>680000</v>
+        <v>11402</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>670692</v>
+        <v>137481</v>
       </c>
     </row>
     <row r="27">
@@ -2006,22 +2006,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>327178</v>
+        <v>18359</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>336716</v>
+        <v>97083</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>372531</v>
+        <v>16022</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>374110</v>
+        <v>86366</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>697465</v>
+        <v>28867</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>706432</v>
+        <v>173221</v>
       </c>
     </row>
     <row r="28">
@@ -2036,22 +2036,22 @@
         </is>
       </c>
       <c r="C28" s="6" t="n">
-        <v>286</v>
+        <v>9</v>
       </c>
       <c r="D28" s="6" t="n">
-        <v>363</v>
+        <v>95</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>285</v>
+        <v>9</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>758</v>
+        <v>122</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>571</v>
+        <v>18</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>1121</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29">
@@ -2062,22 +2062,22 @@
         </is>
       </c>
       <c r="C29" s="6" t="n">
-        <v>241965</v>
+        <v>8173</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>245232</v>
+        <v>64966</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>378050</v>
+        <v>11358</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>392272</v>
+        <v>71727</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>620014</v>
+        <v>19532</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>637504</v>
+        <v>136693</v>
       </c>
     </row>
     <row r="30">
@@ -2088,22 +2088,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>235724</v>
+        <v>3459</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>232646</v>
+        <v>53621</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>368766</v>
+        <v>5078</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>378004</v>
+        <v>61020</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>609485</v>
+        <v>11906</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>620772</v>
+        <v>120238</v>
       </c>
     </row>
     <row r="31">
@@ -2114,22 +2114,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>246679</v>
+        <v>14414</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>256577</v>
+        <v>77552</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>384330</v>
+        <v>20642</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>402979</v>
+        <v>85995</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>627640</v>
+        <v>30061</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>653959</v>
+        <v>153425</v>
       </c>
     </row>
     <row r="32">
@@ -2144,22 +2144,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>2712</v>
+        <v>497</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>2471</v>
+        <v>900</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>2860</v>
+        <v>460</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>4244</v>
+        <v>1109</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>5572</v>
+        <v>957</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>6715</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="33">
@@ -2170,22 +2170,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2844806</v>
+        <v>526300</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2521004</v>
+        <v>1006603</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>3054877</v>
+        <v>467390</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2844420</v>
+        <v>883558</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>5899683</v>
+        <v>993690</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>5365424</v>
+        <v>1890161</v>
       </c>
     </row>
     <row r="34">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2798135</v>
+        <v>486108</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2457542</v>
+        <v>946519</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>3010236</v>
+        <v>429208</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>2796444</v>
+        <v>833786</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>5837310</v>
+        <v>932520</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>5287182</v>
+        <v>1813076</v>
       </c>
     </row>
     <row r="35">
@@ -2222,22 +2222,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2884998</v>
+        <v>572971</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>2581088</v>
+        <v>1070065</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>3093059</v>
+        <v>512031</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>2894192</v>
+        <v>931534</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>5960853</v>
+        <v>1056063</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>5442509</v>
+        <v>1968403</v>
       </c>
     </row>
     <row r="36">

--- a/data/trans_dic/P36BPD07_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD07_R-Edad-trans_dic.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consume menos de una bebida azucarada por día (tasa de respuesta: 99,64%)</t>
+          <t>Población que consume al menos una bebida azucarada por día (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1309,7 +1309,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consume menos de una bebida azucarada por día (tasa de respuesta: 99,64%)</t>
+          <t>Población que consume al menos una bebida azucarada por día (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P36BPD07_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD07_R-Edad-trans_dic.xlsx
@@ -624,7 +624,7 @@
         <v>0.2981062517705463</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.3643973027676097</v>
+        <v>0.3643973027676096</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2898940151794383</v>
+        <v>0.2897780294006292</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2795212302944453</v>
+        <v>0.2733367614960053</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2174437067323481</v>
+        <v>0.2191775086484462</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3090959205435914</v>
+        <v>0.3074483390107599</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.266569403397151</v>
+        <v>0.2653711461837313</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3131102054834499</v>
+        <v>0.3146060298428024</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3806090197080514</v>
+        <v>0.3830149515277405</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4324640804964226</v>
+        <v>0.4322916396509413</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3023798220781141</v>
+        <v>0.3048988544378271</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4512662836070159</v>
+        <v>0.4426937845470322</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3316757792206515</v>
+        <v>0.3308266138914067</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4185024817639042</v>
+        <v>0.4180257113759266</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>0.2239639590157217</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2577129531897274</v>
+        <v>0.2577129531897273</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2328748123752933</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2063142180618142</v>
+        <v>0.2060734864635827</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3060456459127639</v>
+        <v>0.3073247084258579</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.184448213840424</v>
+        <v>0.1922801484628561</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2203233961968829</v>
+        <v>0.2197739553103047</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.210137735612429</v>
+        <v>0.2092452127153811</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2717012541296839</v>
+        <v>0.2718368113812162</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2781620541899408</v>
+        <v>0.278420703278988</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4162183507007361</v>
+        <v>0.4127712275428125</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2559870889858702</v>
+        <v>0.2588290180385688</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3018032092401596</v>
+        <v>0.3023749673418538</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2562581872442383</v>
+        <v>0.2582621266349715</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3427390907667083</v>
+        <v>0.3420920884958327</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1427793751659889</v>
+        <v>0.1433878799913375</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2647640864766661</v>
+        <v>0.2666081778046879</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.156137271500417</v>
+        <v>0.1565132264624137</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2449548676779793</v>
+        <v>0.2439105936321556</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1577344012016372</v>
+        <v>0.1562184890193427</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2666088132483075</v>
+        <v>0.2666862007463658</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2011349412160622</v>
+        <v>0.2009670451196414</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3439669285519025</v>
+        <v>0.3443906640607411</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2156968049583219</v>
+        <v>0.2137029956908067</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3084216504560518</v>
+        <v>0.3071527011716841</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1996163571698269</v>
+        <v>0.1982030318362827</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3142074652956178</v>
+        <v>0.3168120411222169</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>0.1075913168123897</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2426312250167576</v>
+        <v>0.2426312250167577</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1261253702815789</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1163829611773315</v>
+        <v>0.1180133773590616</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2554584632141543</v>
+        <v>0.256770749940391</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08406176775239926</v>
+        <v>0.08432351400849708</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2176156070223675</v>
+        <v>0.2162190238068444</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1077161861051601</v>
+        <v>0.1071668045779653</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2459316102752674</v>
+        <v>0.2448939884576241</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1738332872368181</v>
+        <v>0.1776316219865283</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3264410346315529</v>
+        <v>0.3282445251653356</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1345194324897747</v>
+        <v>0.1351794588020261</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2699223853401198</v>
+        <v>0.2695667799134138</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1457996806996643</v>
+        <v>0.1463009398753202</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2892344531931619</v>
+        <v>0.2868490665478448</v>
       </c>
     </row>
     <row r="16">
@@ -940,13 +940,13 @@
         <v>0.04074092976048568</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.2522559068213479</v>
+        <v>0.252255906821348</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.05573290661138929</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2003587635155909</v>
+        <v>0.200358763515591</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.04842805350472478</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02385060199439073</v>
+        <v>0.02395389999953174</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2202847559642503</v>
+        <v>0.2198137203104495</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03682498558892078</v>
+        <v>0.03667524026983066</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1761055525736648</v>
+        <v>0.1763795190967784</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03404424240117933</v>
+        <v>0.0360817225180624</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2050479628214897</v>
+        <v>0.2062356644637675</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0635645850976914</v>
+        <v>0.06409419055661897</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2914995592815968</v>
+        <v>0.2893213088557589</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08302856157908611</v>
+        <v>0.08205474698541626</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2265768697975809</v>
+        <v>0.2270452136413784</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06522577241186847</v>
+        <v>0.06587881276564173</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2479449283879001</v>
+        <v>0.2473769113762436</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>0.02240129523942588</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.1702469136798033</v>
+        <v>0.1702469136798032</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.02662656445741741</v>
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01515113704505816</v>
+        <v>0.01692846621046495</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1706645900580872</v>
+        <v>0.1680200242770167</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01095266813714644</v>
+        <v>0.01093783005208942</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1456841446134362</v>
+        <v>0.1456281426046864</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01608486498064975</v>
+        <v>0.01714114099247247</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1629094157811493</v>
+        <v>0.1662371481297586</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05526288322220697</v>
+        <v>0.05495887683525602</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2391164809971822</v>
+        <v>0.2326651795856413</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04253691444243321</v>
+        <v>0.04188443402488443</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1972239796776092</v>
+        <v>0.1973892098019955</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.04072313900325592</v>
+        <v>0.04240126963277027</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2052589350464034</v>
+        <v>0.2085792969790452</v>
       </c>
     </row>
     <row r="22">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01382846648121209</v>
+        <v>0.0142013718479037</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1728614335574016</v>
+        <v>0.1751220693461678</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01304058771822728</v>
+        <v>0.01590548962138019</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1315090405490947</v>
+        <v>0.1319567695177974</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01861577299549656</v>
+        <v>0.01806102288311776</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1553070534736094</v>
+        <v>0.154370195234334</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05762512614605413</v>
+        <v>0.05761678462889215</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2500089986392945</v>
+        <v>0.2482716868062547</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05300832444590067</v>
+        <v>0.05482629996698055</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1853344438571334</v>
+        <v>0.1781961696147532</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04700406169191366</v>
+        <v>0.04746436189462322</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1981732769346624</v>
+        <v>0.1972540528954183</v>
       </c>
     </row>
     <row r="25">
@@ -1192,7 +1192,7 @@
         <v>0.1326957262605824</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.2370072405690868</v>
+        <v>0.2370072405690869</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.1441514243933832</v>
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1441984319328135</v>
+        <v>0.1451792420774556</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2683177184577972</v>
+        <v>0.2684676746591798</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1218555774801523</v>
+        <v>0.1216447320098936</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2236564150196443</v>
+        <v>0.223871296456766</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.135277739442386</v>
+        <v>0.1347857076780693</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2498869857498086</v>
+        <v>0.2503173368161992</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1699652612304881</v>
+        <v>0.1698358363039179</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3033402939690669</v>
+        <v>0.3034880772338439</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1453696316259617</v>
+        <v>0.1446367205389713</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2498763709325044</v>
+        <v>0.2510821639430623</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1531997460952944</v>
+        <v>0.1520191913702149</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2712948413537006</v>
+        <v>0.2712698007998406</v>
       </c>
     </row>
     <row r="28">
@@ -1440,22 +1440,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>120976</v>
+        <v>120927</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>113987</v>
+        <v>111465</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>86054</v>
+        <v>86741</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>112051</v>
+        <v>111454</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>216738</v>
+        <v>215764</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>241190</v>
+        <v>242343</v>
       </c>
     </row>
     <row r="7">
@@ -1466,22 +1466,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>158832</v>
+        <v>159836</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>176356</v>
+        <v>176286</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>119668</v>
+        <v>120665</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>163589</v>
+        <v>160482</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>269674</v>
+        <v>268984</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>322375</v>
+        <v>322007</v>
       </c>
     </row>
     <row r="8">
@@ -1548,22 +1548,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>121612</v>
+        <v>121470</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>145950</v>
+        <v>146560</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>103764</v>
+        <v>108170</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>110192</v>
+        <v>109917</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>242082</v>
+        <v>241054</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>265459</v>
+        <v>265592</v>
       </c>
     </row>
     <row r="11">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>163963</v>
+        <v>164115</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>198490</v>
+        <v>196846</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>144010</v>
+        <v>145609</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>150943</v>
+        <v>151229</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>295214</v>
+        <v>297522</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>334865</v>
+        <v>334233</v>
       </c>
     </row>
     <row r="12">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>95237</v>
+        <v>95643</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>164058</v>
+        <v>165201</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>102839</v>
+        <v>103087</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>151838</v>
+        <v>151191</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>209104</v>
+        <v>207094</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>330461</v>
+        <v>330557</v>
       </c>
     </row>
     <row r="15">
@@ -1682,22 +1682,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>134161</v>
+        <v>134049</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>213135</v>
+        <v>213398</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>142068</v>
+        <v>140755</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>191179</v>
+        <v>190392</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>264625</v>
+        <v>262752</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>389460</v>
+        <v>392688</v>
       </c>
     </row>
     <row r="16">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>75082</v>
+        <v>76133</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>178979</v>
+        <v>179898</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>54203</v>
+        <v>54372</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>160124</v>
+        <v>159097</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>138946</v>
+        <v>138237</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>353264</v>
+        <v>351773</v>
       </c>
     </row>
     <row r="19">
@@ -1790,22 +1790,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>112144</v>
+        <v>114595</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>228710</v>
+        <v>229974</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>86738</v>
+        <v>87163</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>198612</v>
+        <v>198350</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>188071</v>
+        <v>188717</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>415465</v>
+        <v>412039</v>
       </c>
     </row>
     <row r="20">
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>11206</v>
+        <v>11255</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>133595</v>
+        <v>133309</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>18208</v>
+        <v>18134</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>107028</v>
+        <v>107195</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>32828</v>
+        <v>34793</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>248972</v>
+        <v>250414</v>
       </c>
     </row>
     <row r="23">
@@ -1898,22 +1898,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>29866</v>
+        <v>30115</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>176784</v>
+        <v>175463</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>41052</v>
+        <v>40571</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>137702</v>
+        <v>137987</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>62896</v>
+        <v>63526</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>301058</v>
+        <v>300369</v>
       </c>
     </row>
     <row r="24">
@@ -1980,22 +1980,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>5033</v>
+        <v>5624</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>69291</v>
+        <v>68217</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>4125</v>
+        <v>4120</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>63796</v>
+        <v>63771</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>11402</v>
+        <v>12151</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>137481</v>
+        <v>140290</v>
       </c>
     </row>
     <row r="27">
@@ -2006,22 +2006,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>18359</v>
+        <v>18258</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>97083</v>
+        <v>94464</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>16022</v>
+        <v>15776</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>86366</v>
+        <v>86438</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>28867</v>
+        <v>30057</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>173221</v>
+        <v>176023</v>
       </c>
     </row>
     <row r="28">
@@ -2088,22 +2088,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>3459</v>
+        <v>3552</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>53621</v>
+        <v>54323</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>5078</v>
+        <v>6194</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>61020</v>
+        <v>61228</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>11906</v>
+        <v>11551</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>120238</v>
+        <v>119513</v>
       </c>
     </row>
     <row r="31">
@@ -2114,22 +2114,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>14414</v>
+        <v>14412</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>77552</v>
+        <v>77013</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>20642</v>
+        <v>21350</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>85995</v>
+        <v>82683</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>30061</v>
+        <v>30356</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>153425</v>
+        <v>152713</v>
       </c>
     </row>
     <row r="32">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>486108</v>
+        <v>489415</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>946519</v>
+        <v>947048</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>429208</v>
+        <v>428465</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>833786</v>
+        <v>834587</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>932520</v>
+        <v>929128</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1813076</v>
+        <v>1816199</v>
       </c>
     </row>
     <row r="35">
@@ -2222,22 +2222,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>572971</v>
+        <v>572535</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1070065</v>
+        <v>1070587</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>512031</v>
+        <v>509449</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>931534</v>
+        <v>936029</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1056063</v>
+        <v>1047925</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1968403</v>
+        <v>1968221</v>
       </c>
     </row>
     <row r="36">
